--- a/Daily Fantasy.xlsx
+++ b/Daily Fantasy.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="23955" windowHeight="8445"/>
+    <workbookView xWindow="360" yWindow="140" windowWidth="23960" windowHeight="8440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NFL" sheetId="1" r:id="rId1"/>
     <sheet name="Strategy" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,9 +99,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,13 +139,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -444,22 +452,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="3"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>42260</v>
       </c>
@@ -504,7 +512,7 @@
       <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="3">
@@ -518,7 +526,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>42260</v>
       </c>
@@ -534,11 +542,11 @@
       <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>9</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3" si="0">F3-E3</f>
+        <f t="shared" ref="G3:G5" si="0">F3-E3</f>
         <v>4</v>
       </c>
       <c r="H3">
@@ -548,7 +556,7 @@
         <v>121.04</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>42267</v>
       </c>
@@ -564,8 +572,21 @@
       <c r="E4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>150.9</v>
+      </c>
+      <c r="I4">
+        <v>130.27000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>42267</v>
       </c>
@@ -581,8 +602,21 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="H5">
+        <v>120.22</v>
+      </c>
+      <c r="I5">
+        <v>130.27000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>42267</v>
       </c>
@@ -598,8 +632,21 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6-E6</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>109.5</v>
+      </c>
+      <c r="I6">
+        <v>99.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>42267</v>
       </c>
@@ -615,10 +662,28 @@
       <c r="E7" s="2">
         <v>5</v>
       </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f>F7-E7</f>
+        <v>-5</v>
+      </c>
+      <c r="H7">
+        <v>83.6</v>
+      </c>
+      <c r="I7">
+        <v>97.91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -626,69 +691,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -698,8 +768,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Daily Fantasy.xlsx
+++ b/Daily Fantasy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="23960" windowHeight="8440" activeTab="1"/>
+    <workbookView xWindow="-36100" yWindow="2660" windowWidth="31840" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="NFL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>$5 Double Up</t>
+  </si>
+  <si>
+    <t>FanDuel</t>
+  </si>
+  <si>
+    <t>3.  Look at Undervalued players on DK and Yahoo</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +121,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,9 +159,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -149,8 +175,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -676,6 +706,132 @@
         <v>97.91</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <f>F8-E8</f>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>156.18</v>
+      </c>
+      <c r="I8">
+        <v>139.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>340</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <f>F9-E9</f>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>176.32</v>
+      </c>
+      <c r="I9">
+        <v>176.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>17025</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f>F10-E10</f>
+        <v>-5</v>
+      </c>
+      <c r="H10">
+        <v>165.34</v>
+      </c>
+      <c r="I10">
+        <v>168.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>68181</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f>F11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>132.72</v>
+      </c>
+      <c r="I11">
+        <v>138.22</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="3">
+        <f>SUM(G2:G11)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -691,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -710,6 +866,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/Daily Fantasy.xlsx
+++ b/Daily Fantasy.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-36100" yWindow="2660" windowWidth="31840" windowHeight="16480"/>
+    <workbookView xWindow="-36105" yWindow="2655" windowWidth="31845" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="NFL" sheetId="1" r:id="rId1"/>
     <sheet name="Strategy" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -106,9 +106,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -161,7 +161,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,10 +170,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -483,21 +483,21 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="3"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="3"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42260</v>
       </c>
@@ -556,7 +556,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42260</v>
       </c>
@@ -586,7 +586,7 @@
         <v>121.04</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42267</v>
       </c>
@@ -616,7 +616,7 @@
         <v>130.27000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42267</v>
       </c>
@@ -646,7 +646,7 @@
         <v>130.27000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42267</v>
       </c>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3">
-        <f>F6-E6</f>
+        <f t="shared" ref="G6:G11" si="1">F6-E6</f>
         <v>4</v>
       </c>
       <c r="H6">
@@ -676,7 +676,7 @@
         <v>99.37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42267</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>F7-E7</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="H7">
@@ -706,7 +706,7 @@
         <v>97.91</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42274</v>
       </c>
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3">
-        <f>F8-E8</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H8">
@@ -736,7 +736,7 @@
         <v>139.85</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42274</v>
       </c>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="3">
-        <f>F9-E9</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H9">
@@ -766,7 +766,7 @@
         <v>176.32</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42274</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f>F10-E10</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="H10">
@@ -796,7 +796,7 @@
         <v>168.23</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42274</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <f>F11-E11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11">
@@ -826,7 +826,7 @@
         <v>138.22</v>
       </c>
     </row>
-    <row r="20" spans="7:7">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="3">
         <f>SUM(G2:G11)</f>
         <v>2</v>
@@ -851,64 +851,64 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -929,7 +929,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Daily Fantasy.xlsx
+++ b/Daily Fantasy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-36105" yWindow="2655" windowWidth="31845" windowHeight="16440"/>
+    <workbookView xWindow="-36105" yWindow="2655" windowWidth="31845" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NFL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>3.  Look at Undervalued players on DK and Yahoo</t>
+  </si>
+  <si>
+    <t>Cheap QB</t>
+  </si>
+  <si>
+    <t>Expensive WR</t>
+  </si>
+  <si>
+    <t>Peter Jennings DK Expert</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -845,13 +854,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -911,6 +923,21 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Fantasy.xlsx
+++ b/Daily Fantasy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>3.  Look at Undervalued players on DK and Yahoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50K </t>
   </si>
 </sst>
 </file>
@@ -159,29 +162,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="13">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -666,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3">
-        <f>F6-E6</f>
+        <f t="shared" ref="G6:G25" si="1">F6-E6</f>
         <v>4</v>
       </c>
       <c r="H6">
@@ -696,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>F7-E7</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="H7">
@@ -726,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3">
-        <f>F8-E8</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H8">
@@ -756,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="3">
-        <f>F9-E9</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H9">
@@ -786,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f>F10-E10</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="H10">
@@ -816,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <f>F11-E11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11">
@@ -826,15 +844,172 @@
         <v>138.22</v>
       </c>
     </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="3">
-        <f>SUM(G2:G11)</f>
-        <v>2</v>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>340</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>134.04</v>
+      </c>
+      <c r="I12">
+        <v>128.27000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>17025</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>127.56</v>
+      </c>
+      <c r="I13">
+        <v>125.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>106.76</v>
+      </c>
+      <c r="I14">
+        <v>102.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>108.04</v>
+      </c>
+      <c r="I15">
+        <v>94.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>56818</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>95.66</v>
+      </c>
+      <c r="I16">
+        <v>107.89</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
+      <c r="G32" s="3">
+        <f>SUM(G2:G16)</f>
+        <v>15.8</v>
+      </c>
+      <c r="H32" s="6">
+        <f>G32/SUM(E:E)</f>
+        <v>0.25483870967741934</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="H32" emptyCellReference="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Daily Fantasy.xlsx
+++ b/Daily Fantasy.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-36100" yWindow="2660" windowWidth="31840" windowHeight="16480"/>
+    <workbookView xWindow="-36105" yWindow="2655" windowWidth="31845" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="NFL" sheetId="1" r:id="rId1"/>
     <sheet name="Strategy" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -102,16 +102,23 @@
   </si>
   <si>
     <t xml:space="preserve">$50K </t>
+  </si>
+  <si>
+    <t>Average for DraftKings</t>
+  </si>
+  <si>
+    <t>Average for Yahoo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -162,9 +169,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -176,17 +183,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
+    <cellStyle name="Comma" xfId="13" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -498,24 +508,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="3"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="3"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +555,14 @@
       <c r="I1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42260</v>
       </c>
@@ -573,8 +591,16 @@
       <c r="I2">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="M2" s="7" t="str">
+        <f>IF(B2="DraftKings",I2,"")</f>
+        <v/>
+      </c>
+      <c r="N2" s="7">
+        <f>IF(B2="Yahoo",I2,"")</f>
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42260</v>
       </c>
@@ -603,8 +629,16 @@
       <c r="I3">
         <v>121.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M16" si="1">IF(B3="DraftKings",I3,"")</f>
+        <v/>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N16" si="2">IF(B3="Yahoo",I3,"")</f>
+        <v>121.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42267</v>
       </c>
@@ -633,8 +667,16 @@
       <c r="I4">
         <v>130.27000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="M4" s="7">
+        <f t="shared" si="1"/>
+        <v>130.27000000000001</v>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42267</v>
       </c>
@@ -663,8 +705,16 @@
       <c r="I5">
         <v>130.27000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="M5" s="7">
+        <f t="shared" si="1"/>
+        <v>130.27000000000001</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42267</v>
       </c>
@@ -684,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G25" si="1">F6-E6</f>
+        <f t="shared" ref="G6:G16" si="3">F6-E6</f>
         <v>4</v>
       </c>
       <c r="H6">
@@ -693,8 +743,16 @@
       <c r="I6">
         <v>99.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="M6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="2"/>
+        <v>99.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42267</v>
       </c>
@@ -714,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="H7">
@@ -723,8 +781,16 @@
       <c r="I7">
         <v>97.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="M7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="2"/>
+        <v>97.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42274</v>
       </c>
@@ -744,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H8">
@@ -753,8 +819,16 @@
       <c r="I8">
         <v>139.85</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="M8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="2"/>
+        <v>139.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42274</v>
       </c>
@@ -774,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H9">
@@ -783,8 +857,16 @@
       <c r="I9">
         <v>176.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="M9" s="7">
+        <f t="shared" si="1"/>
+        <v>176.32</v>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42274</v>
       </c>
@@ -804,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="H10">
@@ -813,8 +895,16 @@
       <c r="I10">
         <v>168.23</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="M10" s="7">
+        <f t="shared" si="1"/>
+        <v>168.23</v>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42274</v>
       </c>
@@ -834,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
@@ -843,8 +933,16 @@
       <c r="I11">
         <v>138.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="M11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42281</v>
       </c>
@@ -864,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H12">
@@ -873,8 +971,16 @@
       <c r="I12">
         <v>128.27000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="M12" s="7">
+        <f t="shared" si="1"/>
+        <v>128.27000000000001</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42281</v>
       </c>
@@ -894,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H13">
@@ -903,8 +1009,16 @@
       <c r="I13">
         <v>125.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="M13" s="7">
+        <f t="shared" si="1"/>
+        <v>125.95</v>
+      </c>
+      <c r="N13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42281</v>
       </c>
@@ -924,7 +1038,7 @@
         <v>1.8</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="H14">
@@ -933,8 +1047,16 @@
       <c r="I14">
         <v>102.49</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="M14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="2"/>
+        <v>102.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42281</v>
       </c>
@@ -954,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H15">
@@ -963,8 +1085,16 @@
       <c r="I15">
         <v>94.21</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="M15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="2"/>
+        <v>94.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42281</v>
       </c>
@@ -984,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="H16">
@@ -993,8 +1123,30 @@
       <c r="I16">
         <v>107.89</v>
       </c>
-    </row>
-    <row r="32" spans="7:8">
+      <c r="M16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="2"/>
+        <v>107.89</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="7">
+        <f>AVERAGE(M2:M16)</f>
+        <v>143.21833333333333</v>
+      </c>
+      <c r="N18" s="7">
+        <f>AVERAGE(N2:N16)</f>
+        <v>109.39500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G32" s="3">
         <f>SUM(G2:G16)</f>
         <v>15.8</v>
@@ -1026,64 +1178,64 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1104,7 +1256,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Daily Fantasy.xlsx
+++ b/Daily Fantasy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Average for Yahoo</t>
+  </si>
+  <si>
+    <t>$5 Double up</t>
   </si>
 </sst>
 </file>
@@ -510,13 +513,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -630,11 +633,11 @@
         <v>121.04</v>
       </c>
       <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M16" si="1">IF(B3="DraftKings",I3,"")</f>
+        <f t="shared" ref="M3:M17" si="1">IF(B3="DraftKings",I3,"")</f>
         <v/>
       </c>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N16" si="2">IF(B3="Yahoo",I3,"")</f>
+        <f t="shared" ref="N3:N17" si="2">IF(B3="Yahoo",I3,"")</f>
         <v>121.04</v>
       </c>
     </row>
@@ -734,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G16" si="3">F6-E6</f>
+        <f t="shared" ref="G6:G17" si="3">F6-E6</f>
         <v>4</v>
       </c>
       <c r="H6">
@@ -1132,28 +1135,62 @@
         <v>107.89</v>
       </c>
     </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42288</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="H17">
+        <v>130.16</v>
+      </c>
+      <c r="I17">
+        <v>142.77000000000001</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="1"/>
+        <v>142.77000000000001</v>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M18" s="7">
-        <f>AVERAGE(M2:M16)</f>
-        <v>143.21833333333333</v>
+        <f>AVERAGE(M2:M17)</f>
+        <v>143.15428571428572</v>
       </c>
       <c r="N18" s="7">
-        <f>AVERAGE(N2:N16)</f>
+        <f>AVERAGE(N2:N17)</f>
         <v>109.39500000000001</v>
       </c>
     </row>
-    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G32" s="3">
-        <f>SUM(G2:G16)</f>
-        <v>15.8</v>
+        <f>SUM(G2:G17)</f>
+        <v>10.8</v>
       </c>
       <c r="H32" s="6">
         <f>G32/SUM(E:E)</f>
-        <v>0.25483870967741934</v>
+        <v>0.16119402985074627</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Fantasy.xlsx
+++ b/Daily Fantasy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-36105" yWindow="2655" windowWidth="31845" windowHeight="16440"/>
+    <workbookView xWindow="-36105" yWindow="2655" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="NFL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>$5 Double up</t>
+  </si>
+  <si>
+    <t>% off Money</t>
+  </si>
+  <si>
+    <t>Yahoo Ave</t>
+  </si>
+  <si>
+    <t>DK Ave</t>
   </si>
 </sst>
 </file>
@@ -123,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +159,14 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,7 +205,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -197,6 +214,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma" xfId="13" builtinId="3"/>
@@ -511,57 +532,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3"/>
+    <col min="11" max="11" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -594,6 +611,10 @@
       <c r="I2">
         <v>112.4</v>
       </c>
+      <c r="K2" s="6">
+        <f>IF(G2&lt;0,H2/I2,"")</f>
+        <v>0.81530249110320285</v>
+      </c>
       <c r="M2" s="7" t="str">
         <f>IF(B2="DraftKings",I2,"")</f>
         <v/>
@@ -632,12 +653,16 @@
       <c r="I3">
         <v>121.04</v>
       </c>
+      <c r="K3" s="6" t="str">
+        <f t="shared" ref="K3:K20" si="1">IF(G3&lt;0,H3/I3,"")</f>
+        <v/>
+      </c>
       <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M17" si="1">IF(B3="DraftKings",I3,"")</f>
+        <f t="shared" ref="M3:M20" si="2">IF(B3="DraftKings",I3,"")</f>
         <v/>
       </c>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N17" si="2">IF(B3="Yahoo",I3,"")</f>
+        <f t="shared" ref="N3:N20" si="3">IF(B3="Yahoo",I3,"")</f>
         <v>121.04</v>
       </c>
     </row>
@@ -670,12 +695,16 @@
       <c r="I4">
         <v>130.27000000000001</v>
       </c>
+      <c r="K4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130.27000000000001</v>
       </c>
       <c r="N4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -708,12 +737,16 @@
       <c r="I5">
         <v>130.27000000000001</v>
       </c>
+      <c r="K5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.92285253703845849</v>
+      </c>
       <c r="M5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130.27000000000001</v>
       </c>
       <c r="N5" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -737,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G17" si="3">F6-E6</f>
+        <f t="shared" ref="G6:G20" si="4">F6-E6</f>
         <v>4</v>
       </c>
       <c r="H6">
@@ -746,12 +779,16 @@
       <c r="I6">
         <v>99.37</v>
       </c>
+      <c r="K6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.37</v>
       </c>
     </row>
@@ -775,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="H7">
@@ -784,12 +821,16 @@
       <c r="I7">
         <v>97.91</v>
       </c>
+      <c r="K7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.85384536819528134</v>
+      </c>
       <c r="M7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97.91</v>
       </c>
     </row>
@@ -813,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H8">
@@ -822,12 +863,16 @@
       <c r="I8">
         <v>139.85</v>
       </c>
+      <c r="K8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139.85</v>
       </c>
     </row>
@@ -851,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H9">
@@ -860,12 +905,16 @@
       <c r="I9">
         <v>176.32</v>
       </c>
+      <c r="K9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>176.32</v>
       </c>
       <c r="N9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -889,21 +938,25 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>165.34</v>
       </c>
       <c r="I10">
         <v>168.23</v>
       </c>
+      <c r="K10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.98282113772811042</v>
+      </c>
       <c r="M10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168.23</v>
       </c>
       <c r="N10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -927,21 +980,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>132.72</v>
       </c>
       <c r="I11">
         <v>138.22</v>
       </c>
+      <c r="K11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -965,21 +1022,25 @@
         <v>10</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
         <v>134.04</v>
       </c>
       <c r="I12">
         <v>128.27000000000001</v>
       </c>
+      <c r="K12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128.27000000000001</v>
       </c>
       <c r="N12" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1003,21 +1064,25 @@
         <v>10</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
         <v>127.56</v>
       </c>
       <c r="I13">
         <v>125.95</v>
       </c>
+      <c r="K13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.95</v>
       </c>
       <c r="N13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1041,21 +1106,25 @@
         <v>1.8</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>106.76</v>
       </c>
       <c r="I14">
         <v>102.49</v>
       </c>
+      <c r="K14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102.49</v>
       </c>
     </row>
@@ -1079,21 +1148,25 @@
         <v>9</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>108.04</v>
       </c>
       <c r="I15">
         <v>94.21</v>
       </c>
+      <c r="K15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94.21</v>
       </c>
     </row>
@@ -1117,21 +1190,25 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>95.66</v>
       </c>
       <c r="I16">
         <v>107.89</v>
       </c>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.88664380387431641</v>
+      </c>
       <c r="M16" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107.89</v>
       </c>
     </row>
@@ -1155,49 +1232,239 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>130.16</v>
       </c>
       <c r="I17">
         <v>142.77000000000001</v>
       </c>
+      <c r="K17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.9116761224346851</v>
+      </c>
       <c r="M17" s="7">
-        <f t="shared" si="1"/>
+        <f>IF(B17="DraftKings",I17,"")</f>
         <v>142.77000000000001</v>
       </c>
       <c r="N17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42288</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>22700</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>121.82</v>
+      </c>
+      <c r="I18">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.81648793565683653</v>
+      </c>
+      <c r="M18" s="7">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M18" s="7">
-        <f>AVERAGE(M2:M17)</f>
-        <v>143.15428571428572</v>
-      </c>
-      <c r="N18" s="7">
-        <f>AVERAGE(N2:N17)</f>
-        <v>109.39500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="3">
-        <f>SUM(G2:G17)</f>
-        <v>10.8</v>
-      </c>
-      <c r="H32" s="6">
-        <f>G32/SUM(E:E)</f>
-        <v>0.16119402985074627</v>
+        <v>149.19999999999999</v>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42288</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="H19" s="7">
+        <v>121.56</v>
+      </c>
+      <c r="I19">
+        <v>120.63</v>
+      </c>
+      <c r="K19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N19" s="7">
+        <f>IF(B19="Yahoo",I19,"")</f>
+        <v>120.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>115.8</v>
+      </c>
+      <c r="I20">
+        <v>120.63</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.95996020890325795</v>
+      </c>
+      <c r="M20" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="3"/>
+        <v>120.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="H23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H25" s="7"/>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="6">
+        <f>AVERAGE(K2,K7,K16,K20)</f>
+        <v>0.87893796801901458</v>
+      </c>
+      <c r="N25" s="8">
+        <f>AVERAGE(N2:N20)</f>
+        <v>111.64200000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H26" s="7"/>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="6">
+        <f>AVERAGE(K5,K10,K17,K18)</f>
+        <v>0.9084594332145226</v>
+      </c>
+      <c r="N26" s="8">
+        <f>AVERAGE(M2:M20)</f>
+        <v>143.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
+        <f>SUM(G2:G20)</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="H35" s="6">
+        <f>G35/SUM(E:E)</f>
+        <v>3.0379746835443044E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H32" emptyCellReference="1"/>
+    <ignoredError sqref="H35" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
